--- a/Documentos/Doc's TCC/CronogramaSprint.xlsx
+++ b/Documentos/Doc's TCC/CronogramaSprint.xlsx
@@ -3,19 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cleber\Documents\GitHub\app\Documentos\Doc's TCC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint's" sheetId="1" r:id="rId1"/>
     <sheet name="Relacao Sprint-Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="123">
   <si>
     <t>Sprint</t>
   </si>
@@ -381,13 +386,37 @@
   </si>
   <si>
     <t>Sprint 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OBS*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A maioria das telas tanto para aplicação Android quanto para Aplicação Web estão prontas, faltando apesas o desenvolvimento da funcionalidade.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +447,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,15 +592,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -567,13 +606,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,17 +624,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -655,7 +707,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -727,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -879,9 +931,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
@@ -891,7 +945,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25.5">
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,118 +968,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>42088</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>42094</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21">
-        <v>42088</v>
-      </c>
-      <c r="E4" s="21">
-        <v>42094</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21">
-        <v>42088</v>
-      </c>
-      <c r="E5" s="21">
-        <v>42094</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21">
-        <v>42088</v>
-      </c>
-      <c r="E6" s="21">
-        <v>42094</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21">
-        <v>42088</v>
-      </c>
-      <c r="E7" s="21">
-        <v>42094</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5">
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,277 +1086,237 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>42107</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>42124</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="2">
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E10" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="2">
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E11" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="2">
+      <c r="G11" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E12" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="2">
+      <c r="G12" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E13" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="2">
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E14" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="G14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E15" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="2">
+      <c r="G15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E16" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="2">
+      <c r="G16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E17" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="2">
+      <c r="G17" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E18" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="G18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="21">
-        <v>42107</v>
-      </c>
-      <c r="E19" s="21">
-        <v>42124</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
+      <c r="G19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="25.5">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,162 +1339,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>42125</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>42139</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
+      <c r="G22" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21">
-        <v>42125</v>
-      </c>
-      <c r="E23" s="21">
-        <v>42139</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
+      <c r="G23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21">
-        <v>42125</v>
-      </c>
-      <c r="E24" s="21">
-        <v>42139</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="2">
+      <c r="G24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21">
-        <v>42125</v>
-      </c>
-      <c r="E25" s="21">
-        <v>42139</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="2">
+      <c r="G25" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21">
-        <v>42125</v>
-      </c>
-      <c r="E26" s="21">
-        <v>42139</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="2">
+      <c r="G26" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="21">
-        <v>42125</v>
-      </c>
-      <c r="E27" s="21">
-        <v>42139</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
+      <c r="G27" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="25.5">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,162 +1497,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
+    <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>3</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>42140</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>42155</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="2">
+      <c r="G30" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="21">
-        <v>42140</v>
-      </c>
-      <c r="E31" s="21">
-        <v>42155</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="2">
+      <c r="G31" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>3</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="21">
-        <v>42140</v>
-      </c>
-      <c r="E32" s="21">
-        <v>42155</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="2">
+      <c r="G32" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="21">
-        <v>42140</v>
-      </c>
-      <c r="E33" s="21">
-        <v>42155</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30">
-      <c r="A34" s="2">
+      <c r="G33" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>3</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="21">
-        <v>42140</v>
-      </c>
-      <c r="E34" s="21">
-        <v>42155</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="A35" s="2">
+      <c r="G34" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="21">
-        <v>42140</v>
-      </c>
-      <c r="E35" s="21">
-        <v>42155</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
+      <c r="G35" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="25.5">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,160 +1655,140 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
+    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>4</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>42156</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>42170</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="45">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="G38" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="21">
-        <v>42156</v>
-      </c>
-      <c r="E39" s="21">
-        <v>42170</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="2">
+      <c r="G39" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>4</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="21">
-        <v>42156</v>
-      </c>
-      <c r="E40" s="21">
-        <v>42170</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="2">
+      <c r="G40" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>4</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="21">
-        <v>42156</v>
-      </c>
-      <c r="E41" s="21">
-        <v>42170</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="2">
+      <c r="G41" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>4</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="21">
-        <v>42156</v>
-      </c>
-      <c r="E42" s="21">
-        <v>42170</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="2">
+      <c r="G42" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>4</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="21">
-        <v>42156</v>
-      </c>
-      <c r="E43" s="21">
-        <v>42170</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2">
+      <c r="G43" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>4</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="25.5">
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1873,162 +1811,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2">
+    <row r="46" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>5</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="19">
         <v>42156</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>42170</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="2">
+      <c r="G46" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>5</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="21">
-        <v>42171</v>
-      </c>
-      <c r="E47" s="21">
-        <v>42185</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="2">
+      <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>5</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="21">
-        <v>42171</v>
-      </c>
-      <c r="E48" s="21">
-        <v>42185</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2">
+      <c r="G48" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>5</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="21">
-        <v>42171</v>
-      </c>
-      <c r="E49" s="21">
-        <v>42185</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" s="2">
+      <c r="G49" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>5</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="21">
-        <v>42171</v>
-      </c>
-      <c r="E50" s="21">
-        <v>42185</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="2">
+      <c r="G50" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>5</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="21">
-        <v>42171</v>
-      </c>
-      <c r="E51" s="21">
-        <v>42185</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2">
+      <c r="G51" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" ht="25.5">
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,185 +1969,161 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="2">
+    <row r="54" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>6</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="19">
         <v>42186</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="19">
         <v>42200</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="2">
+      <c r="G54" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>6</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="21">
-        <v>42186</v>
-      </c>
-      <c r="E55" s="21">
-        <v>42200</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="2">
+      <c r="G55" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>6</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="21">
-        <v>42186</v>
-      </c>
-      <c r="E56" s="21">
-        <v>42200</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
-      <c r="A57" s="2">
+      <c r="G56" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>6</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="21">
-        <v>42186</v>
-      </c>
-      <c r="E57" s="21">
-        <v>42200</v>
-      </c>
-      <c r="F57" s="20" t="s">
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="2">
+      <c r="G57" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>6</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="21">
-        <v>42186</v>
-      </c>
-      <c r="E58" s="21">
-        <v>42200</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30">
-      <c r="A59" s="2">
+      <c r="G58" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
         <v>6</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="21">
-        <v>42186</v>
-      </c>
-      <c r="E59" s="21">
-        <v>42200</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30">
-      <c r="A60" s="2">
+      <c r="G59" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>6</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="21">
-        <v>42186</v>
-      </c>
-      <c r="E60" s="21">
-        <v>42200</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="2">
+      <c r="G60" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
         <v>6</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" ht="25.5">
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,30 +2146,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="2">
+    <row r="63" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
         <v>7</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="20">
         <v>42201</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>42216</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="25.5">
+      <c r="G63" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2298,30 +2192,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30">
-      <c r="A65" s="2">
+    <row r="65" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
         <v>8</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="20">
         <v>42217</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>42231</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="25.5">
+      <c r="G65" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -2344,404 +2238,507 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30">
-      <c r="A67" s="2">
+    <row r="67" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
         <v>9</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="20">
         <v>42232</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>42247</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="11" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>42088</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>42094</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>42107</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>42124</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>42125</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>42139</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>42140</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>42155</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <v>42156</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>42170</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>42171</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>42185</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <v>42186</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>42200</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <v>42201</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <v>42216</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="4">
         <v>42217</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <v>42231</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <v>42232</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="5">
         <v>42247</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-    </row>
-    <row r="2" spans="1:34" s="9" customFormat="1">
-      <c r="A2" s="12" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+    </row>
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14"/>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:34" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2758,82 +2755,17 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>